--- a/EDA/data_profiling.xlsx
+++ b/EDA/data_profiling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam_Bhongade\Desktop\practice\assesment\sales_data_modelling\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886DCD1-2B60-4D8C-AB32-634D42818C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D847FB-01EB-4B20-8721-B3D2C90B1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>column_name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>38.03</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>only one order_id for multiple rows with different ASIN, amount</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +217,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,11 +247,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -248,6 +271,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,9 +594,10 @@
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +622,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -624,11 +655,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -652,8 +683,11 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -682,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -711,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -740,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -769,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -798,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -827,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -856,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -885,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -914,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -943,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -972,7 +1006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/EDA/data_profiling.xlsx
+++ b/EDA/data_profiling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam_Bhongade\Desktop\practice\assesment\sales_data_modelling\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D847FB-01EB-4B20-8721-B3D2C90B1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7D810A-BF9A-4C5B-997E-B99A4666211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -580,7 +580,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EDA/data_profiling.xlsx
+++ b/EDA/data_profiling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam_Bhongade\Desktop\practice\assesment\sales_data_modelling\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7D810A-BF9A-4C5B-997E-B99A4666211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937EFDEF-43E4-49A5-9147-9FA4D60E54BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +280,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9C56F0F8-C215-49E5-B432-C61A2967CC0B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EDA/data_profiling.xlsx
+++ b/EDA/data_profiling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam_Bhongade\Desktop\practice\assesment\sales_data_modelling\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937EFDEF-43E4-49A5-9147-9FA4D60E54BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD94A9F-850F-4262-ADBC-3417B555D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>column_name</t>
   </si>
@@ -164,6 +164,102 @@
   </si>
   <si>
     <t>only one order_id for multiple rows with different ASIN, amount</t>
+  </si>
+  <si>
+    <t>sample_values</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4...]</t>
+  </si>
+  <si>
+    <t>[405-8078784-5731545, 171-9198151-1101146]</t>
+  </si>
+  <si>
+    <t>[04-30-22, 04-29-22]</t>
+  </si>
+  <si>
+    <t>[Shipped, Cancelled...]</t>
+  </si>
+  <si>
+    <t>[Merchant, Amazon]</t>
+  </si>
+  <si>
+    <t>[Amazon.in, Non-Amazon]</t>
+  </si>
+  <si>
+    <t>[Standard, Expedited]</t>
+  </si>
+  <si>
+    <t>[SET389, JNE3781...]</t>
+  </si>
+  <si>
+    <t>[SET389-KR-NP-S, JNE2781-KR-XXXL]</t>
+  </si>
+  <si>
+    <t>[Set, Kurta, Western...]</t>
+  </si>
+  <si>
+    <t>[B09KXVBD7Z, B09K3WFS32]</t>
+  </si>
+  <si>
+    <t>[M, S, XL, XXL...]</t>
+  </si>
+  <si>
+    <t>[Cancelled, Shipped, Unshipped]</t>
+  </si>
+  <si>
+    <t>[1,2,3...]</t>
+  </si>
+  <si>
+    <t>[INR]</t>
+  </si>
+  <si>
+    <t>[MUMBAI, NAVI MUMBAI]</t>
+  </si>
+  <si>
+    <t>[MAHARASHTRA, KARNATAKA]</t>
+  </si>
+  <si>
+    <t>[400081.0, 560085.0]</t>
+  </si>
+  <si>
+    <t>[IN]</t>
+  </si>
+  <si>
+    <t>[TRUE, FALSE]</t>
+  </si>
+  <si>
+    <t>[Easy Ship]</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>MM-DD-YY</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -192,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -275,6 +377,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +706,12 @@
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,11 +736,20 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -656,8 +777,14 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -685,11 +812,17 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -717,8 +850,17 @@
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -746,8 +888,14 @@
       <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -775,8 +923,14 @@
       <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -804,8 +958,14 @@
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -833,8 +993,14 @@
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -862,8 +1028,14 @@
       <c r="I9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -891,8 +1063,14 @@
       <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -920,8 +1098,14 @@
       <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -949,8 +1133,14 @@
       <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -978,8 +1168,14 @@
       <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1007,8 +1203,14 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1036,8 +1238,14 @@
       <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1065,8 +1273,14 @@
       <c r="I16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1094,8 +1308,14 @@
       <c r="I17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1123,8 +1343,14 @@
       <c r="I18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1152,8 +1378,15 @@
       <c r="I19" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1181,8 +1414,17 @@
       <c r="I20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1210,8 +1452,14 @@
       <c r="I21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1239,8 +1487,11 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1268,8 +1519,14 @@
       <c r="I23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1297,8 +1554,14 @@
       <c r="I24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
